--- a/medicine/Psychotrope/Barbera_d'Asti_superiore/Barbera_d'Asti_superiore.xlsx
+++ b/medicine/Psychotrope/Barbera_d'Asti_superiore/Barbera_d'Asti_superiore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbera_d%27Asti_superiore</t>
+          <t>Barbera_d'Asti_superiore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Barbera d'Asti superiore est un vin italien de la région Piémont doté d'une appellation Dénomination d'origine contrôlée DOC depuis le 9 janvier 1970. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbera_d%27Asti_superiore</t>
+          <t>Barbera_d'Asti_superiore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,13 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Seuls ont droit à la Dénomination d'origine contrôlée (DOC) les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province d'Asti (dans 118 communes) et en  province d'Alexandrie (dans 50 communes). Le Barbera d'Asti superiore se distingue du Barbera d'Asti par sa meilleure aptitude au vieillissement. Il peut se conserver de trois à huit ans.
 Le décret prescrit un vieillissement obligatoire d’au moins 12 mois à compter du 1er janvier suivant la vendange, dont au moins 6 mois en fûts de chêne ou de châtaignier.
 Depuis l’an 2000, 3 sous-zones ont été déterminées pour la qualité « superiore » mais avec des prescriptions plus sévères :
-Sous-zone Nizza
-Les vignobles autorisés se situent dans les communes Agliano Terme, Belveglio, Bruno, Calamandrana, Castel Boglione, Castelnuovo Belbo, Castelnuovo Calcea, Castel Rocchero, Cortiglione, Incisa Scapaccino, Mombaruzzo, Mombercelli, Moasca, Nizza Monferrato, Rocchetta Palafea, San Marzano Oliveto, Vaglio Serra et Vinchio. Vieillissement: 21 mois
-Sous-zone Tinella
-Les vignobles autorisés se situent dans les communes Costigliole d'Asti, Calosso, Castagnole delle Lanze, Coazzolo et Isola d'Asti (partie droite vue de la route Asti - Montegrosso d'Asti). Vieillissement: 24 mois
-Sous-zone Colli Astiani ou Astiano
-Les vignobles autorisés se situent dans les communes Montemarzo (fait partie de la ville Asti), San Marzanotto valle Tanaro (fait partie de la ville Asti), Isola d'Asti (partie gauche vue de la route Asti - Montegrosso d'Asti), Mongardino, Vigliano d'Asti, Montegrosso d'Asti, Montaldo Scarampi, Rocca d'Arazzo, Azzano d'Asti. Vieillissement: 24 mois
 </t>
         </is>
       </c>
@@ -533,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barbera_d%27Asti_superiore</t>
+          <t>Barbera_d'Asti_superiore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +556,123 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Aire de production</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-zone Nizza</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignobles autorisés se situent dans les communes Agliano Terme, Belveglio, Bruno, Calamandrana, Castel Boglione, Castelnuovo Belbo, Castelnuovo Calcea, Castel Rocchero, Cortiglione, Incisa Scapaccino, Mombaruzzo, Mombercelli, Moasca, Nizza Monferrato, Rocchetta Palafea, San Marzano Oliveto, Vaglio Serra et Vinchio. Vieillissement: 21 mois
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Barbera_d'Asti_superiore</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbera_d%27Asti_superiore</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aire de production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-zone Tinella</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignobles autorisés se situent dans les communes Costigliole d'Asti, Calosso, Castagnole delle Lanze, Coazzolo et Isola d'Asti (partie droite vue de la route Asti - Montegrosso d'Asti). Vieillissement: 24 mois
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barbera_d'Asti_superiore</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbera_d%27Asti_superiore</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aire de production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-zone Colli Astiani ou Astiano</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vignobles autorisés se situent dans les communes Montemarzo (fait partie de la ville Asti), San Marzanotto valle Tanaro (fait partie de la ville Asti), Isola d'Asti (partie gauche vue de la route Asti - Montegrosso d'Asti), Mongardino, Vigliano d'Asti, Montegrosso d'Asti, Montaldo Scarampi, Rocca d'Arazzo, Azzano d'Asti. Vieillissement: 24 mois
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Barbera_d'Asti_superiore</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbera_d%27Asti_superiore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: rouge rubis tendant au rouge grenat avec le vieillissement ;
 odeur: vineux, avec un parfum caractéristique tendant au fugace avec le vieillissement ;
@@ -561,101 +682,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Barbera_d%27Asti_superiore</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Barbera_d%27Asti_superiore</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Détails historiques</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Barbera_d%27Asti_superiore</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Barbera_d%27Asti_superiore</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Association de plats conseillée</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Minestrone, gibier, viande rouge braisée, grillades avec sauces, amuse-gueules, charcuterie[1], pâtés et terrines, pâtes[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Barbera_d%27Asti_superiore</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Barbera_d%27Asti_superiore</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Province, saison, volume en hectolitres : 
- pas de données disponibles </t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Barbera_d%27Asti_superiore</t>
+          <t>Barbera_d'Asti_superiore</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,12 +703,108 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Détails historiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Barbera_d'Asti_superiore</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbera_d%27Asti_superiore</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Association de plats conseillée</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minestrone, gibier, viande rouge braisée, grillades avec sauces, amuse-gueules, charcuterie, pâtés et terrines, pâtes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Barbera_d'Asti_superiore</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbera_d%27Asti_superiore</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Province, saison, volume en hectolitres : 
+ pas de données disponibles </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Barbera_d'Asti_superiore</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbera_d%27Asti_superiore</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les millésimes, la bouteille se vend entre 2,0 € et 94 € sur Internet[3],[4].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les millésimes, la bouteille se vend entre 2,0 € et 94 € sur Internet,.
 </t>
         </is>
       </c>
